--- a/doc/设计文档/选型参考/器件入库.xlsx
+++ b/doc/设计文档/选型参考/器件入库.xlsx
@@ -1031,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>

--- a/doc/设计文档/选型参考/器件入库.xlsx
+++ b/doc/设计文档/选型参考/器件入库.xlsx
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1316,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1692,7 +1692,7 @@
         <v>40</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>49</v>
       </c>
       <c r="G35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35">
         <v>1</v>
